--- a/controllers/output.xlsx
+++ b/controllers/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Rakennus</t>
   </si>
@@ -22,40 +22,34 @@
     <t>Kerros</t>
   </si>
   <si>
-    <t>Kerros 2. KERROS</t>
+    <t>Kerros 3. KERROS</t>
   </si>
   <si>
     <t>Asunto</t>
   </si>
   <si>
-    <t>AS 05</t>
+    <t>AS 10</t>
   </si>
   <si>
     <t>Tila</t>
   </si>
   <si>
-    <t>AH</t>
+    <t>KT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>AS 06</t>
-  </si>
-  <si>
-    <t>AS 07</t>
-  </si>
-  <si>
-    <t>AS 08</t>
-  </si>
-  <si>
-    <t>AS 09</t>
-  </si>
-  <si>
-    <t>as 07</t>
+    <t>AS 11</t>
+  </si>
+  <si>
+    <t>AS 12</t>
+  </si>
+  <si>
+    <t>AS 13</t>
+  </si>
+  <si>
+    <t>AS 14</t>
   </si>
 </sst>
 </file>
@@ -432,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,34 +464,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -530,104 +521,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
